--- a/intelligence-invoice-engine/sample_invoice1.xlsx
+++ b/intelligence-invoice-engine/sample_invoice1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\intelligent-invoice-agent\intelligence-invoice-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91482FE7-CAD5-4FBB-AF24-F71D33EE5609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5080BB0B-05B2-488B-BD77-BE334B3690BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -43,10 +43,7 @@
     <t>Professional Services</t>
   </si>
   <si>
-    <t>XYZ Ltd</t>
-  </si>
-  <si>
-    <t>INV-2024-004</t>
+    <t>efkjkjfwek  Ltd</t>
   </si>
 </sst>
 </file>
@@ -415,7 +412,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,8 +442,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>111111</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
